--- a/results/InceptionNet/AppliancesEnergy/pruning_quant-dynamic_low-rank_quant-static/0_pruning_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/pruning_quant-dynamic_low-rank_quant-static/0_pruning_metrics.xlsx
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.013</v>
+        <v>0.019</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.727</v>
+        <v>-2.229</v>
       </c>
       <c r="D4" t="n">
-        <v>-13384.62</v>
+        <v>-11831.58</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.023</v>
+        <v>0.035</v>
       </c>
       <c r="C5" t="n">
-        <v>0.008</v>
+        <v>-0.01</v>
       </c>
       <c r="D5" t="n">
-        <v>-65.22</v>
+        <v>-128.57</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.142</v>
+        <v>2.625</v>
       </c>
       <c r="C6" t="n">
-        <v>8.676</v>
+        <v>8.641999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>176.13</v>
+        <v>229.22</v>
       </c>
     </row>
     <row r="7">
@@ -554,13 +554,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.198</v>
+        <v>0.184</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.605</v>
       </c>
       <c r="D7" t="n">
-        <v>186.36</v>
+        <v>228.8</v>
       </c>
     </row>
     <row r="8">
@@ -573,10 +573,10 @@
         <v>10.979</v>
       </c>
       <c r="C8" t="n">
-        <v>18.177</v>
+        <v>19.441</v>
       </c>
       <c r="D8" t="n">
-        <v>65.56</v>
+        <v>77.06999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -586,13 +586,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.201</v>
+        <v>2.217</v>
       </c>
       <c r="C9" t="n">
-        <v>8.207000000000001</v>
+        <v>8.164999999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>272.88</v>
+        <v>268.29</v>
       </c>
     </row>
     <row r="10">
@@ -602,13 +602,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18.043</v>
+        <v>11.641</v>
       </c>
       <c r="C10" t="n">
-        <v>92.012</v>
+        <v>86.621</v>
       </c>
       <c r="D10" t="n">
-        <v>409.96</v>
+        <v>644.1</v>
       </c>
     </row>
     <row r="11">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.062</v>
+        <v>0.045</v>
       </c>
       <c r="C11" t="n">
-        <v>0.678</v>
+        <v>0.776</v>
       </c>
       <c r="D11" t="n">
-        <v>993.55</v>
+        <v>1624.44</v>
       </c>
     </row>
     <row r="12">
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.06900000000000001</v>
+        <v>0.015</v>
       </c>
       <c r="C12" t="n">
-        <v>-4.452</v>
+        <v>-6.327</v>
       </c>
       <c r="D12" t="n">
-        <v>6352.17</v>
+        <v>-42280</v>
       </c>
     </row>
     <row r="13">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.248</v>
+        <v>3.412</v>
       </c>
       <c r="C13" t="n">
-        <v>9.592000000000001</v>
+        <v>9.307</v>
       </c>
       <c r="D13" t="n">
-        <v>125.8</v>
+        <v>172.77</v>
       </c>
     </row>
   </sheetData>
@@ -745,22 +745,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.848090007901192</v>
+        <v>3.275650285539173</v>
       </c>
       <c r="C4" t="n">
-        <v>5.711499959230423</v>
+        <v>3.003523051738739</v>
       </c>
       <c r="D4" t="n">
-        <v>17.81</v>
+        <v>-8.31</v>
       </c>
       <c r="E4" t="n">
-        <v>2.451494667510008</v>
+        <v>0.9337202830882027</v>
       </c>
       <c r="F4" t="n">
-        <v>3.739447627138853</v>
+        <v>1.092228800460241</v>
       </c>
       <c r="G4" t="n">
-        <v>52.54</v>
+        <v>16.98</v>
       </c>
     </row>
     <row r="5">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.112049663090472</v>
+        <v>3.624875533533538</v>
       </c>
       <c r="C6" t="n">
-        <v>3.951209200094622</v>
+        <v>3.791468803781787</v>
       </c>
       <c r="D6" t="n">
-        <v>26.96</v>
+        <v>4.6</v>
       </c>
       <c r="E6" t="n">
-        <v>1.15918706986731</v>
+        <v>1.005096335099994</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9525119856869372</v>
+        <v>1.882402856225439</v>
       </c>
       <c r="G6" t="n">
-        <v>-17.83</v>
+        <v>87.29000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/results/InceptionNet/AppliancesEnergy/pruning_quant-dynamic_low-rank_quant-static/0_pruning_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/pruning_quant-dynamic_low-rank_quant-static/0_pruning_metrics.xlsx
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.019</v>
+        <v>-0.03</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.229</v>
+        <v>-3.078</v>
       </c>
       <c r="D4" t="n">
-        <v>-11831.58</v>
+        <v>10160</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.035</v>
+        <v>0.019</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.01</v>
+        <v>-0.008999999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>-128.57</v>
+        <v>-147.37</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.625</v>
+        <v>2.756</v>
       </c>
       <c r="C6" t="n">
-        <v>8.641999999999999</v>
+        <v>10.912</v>
       </c>
       <c r="D6" t="n">
-        <v>229.22</v>
+        <v>295.94</v>
       </c>
     </row>
     <row r="7">
@@ -554,13 +554,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.184</v>
+        <v>0.209</v>
       </c>
       <c r="C7" t="n">
-        <v>0.605</v>
+        <v>0.777</v>
       </c>
       <c r="D7" t="n">
-        <v>228.8</v>
+        <v>271.77</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.979</v>
+        <v>8.888</v>
       </c>
       <c r="C8" t="n">
-        <v>19.441</v>
+        <v>21.482</v>
       </c>
       <c r="D8" t="n">
-        <v>77.06999999999999</v>
+        <v>141.7</v>
       </c>
     </row>
     <row r="9">
@@ -586,13 +586,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.217</v>
+        <v>2.651</v>
       </c>
       <c r="C9" t="n">
-        <v>8.164999999999999</v>
+        <v>10.505</v>
       </c>
       <c r="D9" t="n">
-        <v>268.29</v>
+        <v>296.27</v>
       </c>
     </row>
     <row r="10">
@@ -602,13 +602,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11.641</v>
+        <v>11.837</v>
       </c>
       <c r="C10" t="n">
-        <v>86.621</v>
+        <v>131.011</v>
       </c>
       <c r="D10" t="n">
-        <v>644.1</v>
+        <v>1006.79</v>
       </c>
     </row>
     <row r="11">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.045</v>
+        <v>0.05</v>
       </c>
       <c r="C11" t="n">
-        <v>0.776</v>
+        <v>1.758</v>
       </c>
       <c r="D11" t="n">
-        <v>1624.44</v>
+        <v>3416</v>
       </c>
     </row>
     <row r="12">
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.015</v>
+        <v>-0.001</v>
       </c>
       <c r="C12" t="n">
-        <v>-6.327</v>
+        <v>-10.082</v>
       </c>
       <c r="D12" t="n">
-        <v>-42280</v>
+        <v>1008100</v>
       </c>
     </row>
     <row r="13">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.412</v>
+        <v>3.441</v>
       </c>
       <c r="C13" t="n">
-        <v>9.307</v>
+        <v>11.446</v>
       </c>
       <c r="D13" t="n">
-        <v>172.77</v>
+        <v>232.64</v>
       </c>
     </row>
   </sheetData>
@@ -745,22 +745,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.275650285539173</v>
+        <v>3.130095998446146</v>
       </c>
       <c r="C4" t="n">
-        <v>3.003523051738739</v>
+        <v>3.195417126019796</v>
       </c>
       <c r="D4" t="n">
-        <v>-8.31</v>
+        <v>2.09</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9337202830882027</v>
+        <v>0.5760438416396302</v>
       </c>
       <c r="F4" t="n">
-        <v>1.092228800460241</v>
+        <v>1.207021703478834</v>
       </c>
       <c r="G4" t="n">
-        <v>16.98</v>
+        <v>109.54</v>
       </c>
     </row>
     <row r="5">
@@ -773,10 +773,10 @@
         <v>2.954</v>
       </c>
       <c r="C5" t="n">
-        <v>1.076</v>
+        <v>0.393</v>
       </c>
       <c r="D5" t="n">
-        <v>-63.57</v>
+        <v>-86.7</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.624875533533538</v>
+        <v>3.21373159271227</v>
       </c>
       <c r="C6" t="n">
-        <v>3.791468803781787</v>
+        <v>3.656998462597409</v>
       </c>
       <c r="D6" t="n">
-        <v>4.6</v>
+        <v>13.79</v>
       </c>
       <c r="E6" t="n">
-        <v>1.005096335099994</v>
+        <v>0.5156496767279775</v>
       </c>
       <c r="F6" t="n">
-        <v>1.882402856225439</v>
+        <v>1.264420019745443</v>
       </c>
       <c r="G6" t="n">
-        <v>87.29000000000001</v>
+        <v>145.21</v>
       </c>
     </row>
   </sheetData>

--- a/results/InceptionNet/AppliancesEnergy/pruning_quant-dynamic_low-rank_quant-static/0_pruning_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/pruning_quant-dynamic_low-rank_quant-static/0_pruning_metrics.xlsx
@@ -84,11 +84,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -467,8 +469,8 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -483,7 +485,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -686,13 +688,13 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
       <c r="E1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -707,7 +709,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -722,7 +724,7 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -784,7 +786,6 @@
       <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
